--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.6621658594</v>
+        <v>565488.6672442007</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226762</v>
+        <v>8547013.059513925</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760949</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.4022924851448</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>7.527456720693975</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443479</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.396723986041543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W6" t="n">
-        <v>55.91281647716764</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>107.2409272258925</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.95707728066304</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.70122005611992</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>77.3604205149731</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>65.50404967135589</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.8306740396106</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>149.5557387055065</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.4808309317257</v>
       </c>
       <c r="G13" t="n">
-        <v>87.93270968653134</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>248.291180648487</v>
       </c>
       <c r="C14" t="n">
-        <v>233.6876255317283</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>177.00550155297</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.15455118881633</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.95911863073258</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5686136209704</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>50.85858599718225</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.6752559270063</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>109.478249200651</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>65.33825739391301</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>115.0138334144185</v>
+        <v>239.3348485454005</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>81.29036521067809</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>117.0602861317418</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>19.78589926923129</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>131.5522128412692</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>378.1747976530326</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>197.2040098788589</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>92.47761555491205</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>128.5906918204591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>204.2084575520946</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.3991884271815</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.5916654001852</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8978589069424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>17.35112070699422</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>47.38664856090042</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>54.51165059784287</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>318.4685234071055</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>297.9783914460481</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>189.672165632151</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.7337232129123</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>355.9276512438688</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5388824951718</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>75.9484855506643</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>225.5286766224914</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>140.5688478723429</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>222.2939238702242</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.24654969937895</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>240.0008816540109</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>64.37012338319148</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951727</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.4174310902484</v>
       </c>
       <c r="U46" t="n">
-        <v>166.351665667886</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.0337116067851</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058976</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644763</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123839</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602028</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>583.2614020227612</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>393.841617006276</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.55991817042155</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="C3" t="n">
-        <v>30.55991817042155</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D3" t="n">
-        <v>30.55991817042155</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024229</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017077</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652813</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>742.4988570282167</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>742.4988570282167</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>742.4988570282167</v>
       </c>
       <c r="U3" t="n">
-        <v>409.399488203391</v>
+        <v>742.4988570282167</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9797031869063</v>
+        <v>553.0790720117315</v>
       </c>
       <c r="W3" t="n">
-        <v>30.55991817042155</v>
+        <v>363.6592869952463</v>
       </c>
       <c r="X3" t="n">
-        <v>30.55991817042155</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55991817042155</v>
+        <v>174.2395019787611</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230188</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517074</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897904</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897904</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897904</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897904</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>743.641011305642</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S5" t="n">
-        <v>583.2614020227601</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="U5" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="V5" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="X5" t="n">
-        <v>583.2614020227601</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062753</v>
+        <v>583.2614020227609</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335.9896342275476</v>
+        <v>189.774068678416</v>
       </c>
       <c r="C6" t="n">
-        <v>161.5366049464206</v>
+        <v>189.774068678416</v>
       </c>
       <c r="D6" t="n">
-        <v>161.5366049464206</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024218</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L6" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017065</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652799</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652799</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652799</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652799</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652799</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="W6" t="n">
-        <v>693.6247562641005</v>
+        <v>298.098237593459</v>
       </c>
       <c r="X6" t="n">
-        <v>504.2049712476157</v>
+        <v>189.774068678416</v>
       </c>
       <c r="Y6" t="n">
-        <v>504.2049712476157</v>
+        <v>189.774068678416</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>886.1202413417705</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="C8" t="n">
-        <v>886.1202413417705</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="D8" t="n">
-        <v>886.1202413417705</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="E8" t="n">
-        <v>840.7090521693835</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="F8" t="n">
-        <v>429.7231473797759</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642784</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.859413381704</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.720081405892</v>
+        <v>371.2627786323103</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>701.9198318029917</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="C9" t="n">
-        <v>527.4668025218647</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D9" t="n">
-        <v>378.5323928606134</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E9" t="n">
-        <v>312.3666861218701</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T9" t="n">
-        <v>1627.262386835205</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="U9" t="n">
-        <v>1399.160796968469</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="V9" t="n">
-        <v>1164.008688736726</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="W9" t="n">
-        <v>909.7713320085245</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="X9" t="n">
-        <v>701.9198318029917</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.9198318029917</v>
+        <v>108.6784525769738</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675982</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.35562273557</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>557.1590183167823</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>557.1590183167823</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5059,10 +5059,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5126,46 +5126,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.3330353074676</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3330353074676</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="D13" t="n">
-        <v>155.3330353074676</v>
+        <v>192.2503294945327</v>
       </c>
       <c r="E13" t="n">
-        <v>155.3330353074676</v>
+        <v>192.2503294945327</v>
       </c>
       <c r="F13" t="n">
-        <v>155.3330353074676</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>410.0175235133545</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V13" t="n">
-        <v>155.3330353074676</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W13" t="n">
-        <v>155.3330353074676</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="X13" t="n">
-        <v>155.3330353074676</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="Y13" t="n">
-        <v>155.3330353074676</v>
+        <v>342.3669689068684</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1914.669427940026</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
         <v>108.5090151927147</v>
@@ -5275,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5293,13 +5293,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176917</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X14" t="n">
-        <v>2304.808759915838</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y14" t="n">
-        <v>1914.669427940026</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="15">
@@ -5354,34 +5354,34 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
         <v>2435.471302619336</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8459426266613</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C16" t="n">
-        <v>362.8459426266613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D16" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U16" t="n">
-        <v>652.263112663622</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V16" t="n">
-        <v>652.263112663622</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="W16" t="n">
-        <v>362.8459426266613</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8459426266613</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8459426266613</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1506.363819949361</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.401303008949</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>779.1356044021984</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>393.3473518039542</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>393.3473518039542</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>393.3473518039542</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>95.76375141272138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520488</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2656.568750250374</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>2283.102991989294</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.963660013482</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.4020639300938</v>
+        <v>410.9915598002989</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4020639300938</v>
+        <v>410.9915598002989</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>410.9915598002989</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>791.9221008414108</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>502.8192339670544</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V19" t="n">
-        <v>502.8192339670544</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W19" t="n">
-        <v>213.4020639300938</v>
+        <v>631.784138943829</v>
       </c>
       <c r="X19" t="n">
-        <v>213.4020639300938</v>
+        <v>631.784138943829</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.4020639300938</v>
+        <v>410.9915598002989</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1698.50962791956</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.547110979148</v>
+        <v>1015.867262682234</v>
       </c>
       <c r="D20" t="n">
-        <v>971.2814123723979</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>585.4931597741536</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>174.507254984546</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
         <v>108.5090151927147</v>
@@ -5752,22 +5752,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.50962791956</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218343</v>
@@ -5946,16 +5946,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V22" t="n">
-        <v>804.7114165106916</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W22" t="n">
-        <v>515.2942464737309</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X22" t="n">
-        <v>287.3046955757135</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1771.429619686768</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C23" t="n">
-        <v>1402.467102746356</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
@@ -5998,13 +5998,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2535.034709923659</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>2161.568951662579</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1771.429619686768</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>518.4459618444151</v>
+        <v>699.120390387711</v>
       </c>
       <c r="C25" t="n">
-        <v>349.5097789165083</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>199.3931395041725</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>199.3931395041725</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>199.3931395041725</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6177,22 +6177,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V25" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W25" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X25" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y25" t="n">
-        <v>700.0944266746549</v>
+        <v>699.120390387711</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>863.5793116912603</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>863.5793116912603</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3126.409852034566</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3126.409852034566</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>3126.409852034566</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>3126.409852034566</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X26" t="n">
-        <v>2752.944093773487</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y26" t="n">
-        <v>2362.804761797675</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5649387724261</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445192</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>920.887005818185</v>
+        <v>635.7893887612616</v>
       </c>
       <c r="U28" t="n">
-        <v>920.887005818185</v>
+        <v>635.7893887612616</v>
       </c>
       <c r="V28" t="n">
-        <v>920.887005818185</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="W28" t="n">
-        <v>920.887005818185</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X28" t="n">
-        <v>788.005982746196</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.2134036026658</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1274.245689520978</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C29" t="n">
-        <v>905.2831725805665</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2831725805665</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E29" t="n">
-        <v>519.4949199823222</v>
+        <v>535.9822032813809</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2424.450619821991</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2050.984861560912</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1660.8455295851</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>349.353241101998</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>202.4632936040877</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6663,10 +6663,10 @@
         <v>666.202517612298</v>
       </c>
       <c r="X31" t="n">
-        <v>438.2129667142807</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.4203875707506</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1127.748203495403</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C32" t="n">
-        <v>758.7856865549913</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D32" t="n">
-        <v>758.7856865549913</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>126.0353997452341</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6706,10 +6706,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6733,19 +6733,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559525</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="33">
@@ -6894,16 +6894,16 @@
         <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>576.721865612674</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W34" t="n">
-        <v>287.3046955757135</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X34" t="n">
-        <v>287.3046955757135</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>114.3774180088505</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1501.213961756484</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C35" t="n">
-        <v>1132.251444816073</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D35" t="n">
-        <v>773.9857462093221</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>388.1974936110778</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796418</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X35" t="n">
-        <v>2277.953133796418</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.813801820606</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.3613929424835</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C37" t="n">
-        <v>214.4252100145765</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="X37" t="n">
-        <v>785.8024369162533</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.0098577727232</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C38" t="n">
         <v>1678.62132134232</v>
@@ -7174,52 +7174,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7368,16 +7368,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0802617550623</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.798686923957</v>
+        <v>1736.589769957182</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.836169983545</v>
+        <v>1367.627253016771</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1009.36155441002</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>623.5733018117758</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>623.5733018117758</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>208.5008516567722</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7411,25 +7411,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052369</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>3101.066504568541</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2770.00361722497</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.00361722497</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X41" t="n">
-        <v>2396.53785896389</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="Y41" t="n">
-        <v>2006.398526988078</v>
+        <v>2123.189610021304</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7493,22 +7493,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.5649387724261</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="C43" t="n">
-        <v>216.6287558445192</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218343</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7569,52 +7569,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>861.0420061218431</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>861.0420061218431</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="V43" t="n">
-        <v>606.3575179159562</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="W43" t="n">
-        <v>606.3575179159562</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="X43" t="n">
-        <v>606.3575179159562</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.5649387724261</v>
+        <v>678.4618728343356</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>957.5907980264828</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>546.6048932368753</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>131.5324430818718</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912096</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218345</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218345</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181855</v>
+        <v>816.4249542118735</v>
       </c>
       <c r="U46" t="n">
-        <v>752.8550202950682</v>
+        <v>527.322087337517</v>
       </c>
       <c r="V46" t="n">
-        <v>752.8550202950682</v>
+        <v>527.322087337517</v>
       </c>
       <c r="W46" t="n">
-        <v>463.4378502581077</v>
+        <v>527.322087337517</v>
       </c>
       <c r="X46" t="n">
-        <v>235.4482993600903</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>527.322087337517</v>
       </c>
     </row>
   </sheetData>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971603</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445885</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>184.0684315413181</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121487</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897333</v>
       </c>
     </row>
     <row r="3">
@@ -22634,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.2427879702561</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>64.90543890776917</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310495</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459928</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715715</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,16 +22722,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22761,10 +22761,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390155</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>70.68499503062222</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011203</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -22883,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
@@ -22922,13 +22922,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W6" t="n">
-        <v>195.782166683752</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X6" t="n">
-        <v>18.2473980371575</v>
+        <v>98.53205797758494</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22959,16 +22959,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159723</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -22995,13 +22995,13 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356653</v>
       </c>
       <c r="U7" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693935</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>336.9732927915987</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>373.3966131739381</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95.34807847334264</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>92.14103078404506</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.903167623869933</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>261.365986947947</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>20.9402170912055</v>
       </c>
       <c r="G13" t="n">
-        <v>78.09309857249688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>134.4426610149936</v>
       </c>
       <c r="C14" t="n">
-        <v>131.5852662392793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>109.2063366526429</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>250.9830921350117</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>12.61781114219337</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>12.6693250350832</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>95.57537664938693</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>91.87369334916289</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>245.2047924200319</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>345.5834682595404</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24186,16 +24186,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>137.1238099094095</v>
+        <v>12.80279477842751</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>273.3926764100049</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>147.4609218293965</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.47359541775904</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>28.70124808867888</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>6.713960260761212</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>127.0713337212571</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>94.15744254776803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>278.2853539212524</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0325111653184</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.43279175475581</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>31.43414285884299</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>145.0325111653194</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>132.4453316210369</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>197.6259927259851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>88.40752233460597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>51.26257727136493</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>62.46547769167697</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>91.97593217612481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.345240527138742</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>222.7020862222412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>72.66698746754805</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25608,7 +25608,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>26.60896670133658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>154.0389165149776</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.70124808867777</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3023995767903</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>46.21095655160201</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>230.237641004129</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222403</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>116.1315181859208</v>
       </c>
       <c r="U46" t="n">
-        <v>119.8601725377268</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061955</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061953</v>
+        <v>424931.0936061954</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>158307.6623238767</v>
+      </c>
+      <c r="C2" t="n">
+        <v>158307.6623238766</v>
+      </c>
+      <c r="D2" t="n">
         <v>158307.6623238765</v>
       </c>
-      <c r="C2" t="n">
-        <v>158307.6623238765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245340.6184784387</v>
-      </c>
       <c r="E2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.928500312</v>
       </c>
       <c r="G2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="H2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="I2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="K2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="J2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>312588.9285003118</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="M2" t="n">
-        <v>312588.9285003119</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003118</v>
@@ -26355,7 +26355,7 @@
         <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003118</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487659</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127023</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608625</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="C4" t="n">
+        <v>137.8001180723343</v>
+      </c>
+      <c r="D4" t="n">
         <v>137.8001180723341</v>
       </c>
-      <c r="D4" t="n">
-        <v>384.3219252469136</v>
-      </c>
       <c r="E4" t="n">
+        <v>584.6469890061234</v>
+      </c>
+      <c r="F4" t="n">
+        <v>584.6469890061234</v>
+      </c>
+      <c r="G4" t="n">
+        <v>584.6469890061232</v>
+      </c>
+      <c r="H4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="F4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="G4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26453,13 +26453,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
+        <v>584.6469890061232</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061231</v>
       </c>
-      <c r="O4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161358</v>
       </c>
-      <c r="D5" t="n">
-        <v>85199.08185587224</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456894</v>
+        <v>-491392.2469285584</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515597</v>
+        <v>99964.65559228724</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676093</v>
+        <v>99964.65559228738</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.80019516732</v>
+        <v>-389844.1022215724</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717428</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717428</v>
+        <v>237290.5414120952</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431982</v>
+        <v>188225.5966835508</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404725</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556566</v>
+        <v>76834.09954421806</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120954</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
+        <v>548.4699409129049</v>
+      </c>
+      <c r="D3" t="n">
         <v>548.4699409129047</v>
       </c>
-      <c r="D3" t="n">
-        <v>853.7106645376841</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
+        <v>187.5255871663202</v>
+      </c>
+      <c r="D4" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="D4" t="n">
-        <v>542.1149567261632</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,16 +26813,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247794</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.589369559843</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761298</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628879</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31217,31 +31217,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31454,31 +31454,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855768</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
